--- a/src/layerSolutions_right_Civil.xlsx
+++ b/src/layerSolutions_right_Civil.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="right" sheetId="1" state="visible" r:id="rId1"/>
@@ -448,15 +448,15 @@
   <dimension ref="A1:V644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="Q2" sqref="Q2:Q644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col width="9.140625" customWidth="1" style="2" min="1" max="6"/>
     <col width="9.140625" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.140625" customWidth="1" style="2" min="8" max="16"/>
-    <col width="9.140625" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="9.140625" customWidth="1" style="2" min="8" max="17"/>
+    <col width="9.140625" customWidth="1" style="2" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -603,7 +603,7 @@
       <c r="K2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="3" t="n"/>
+      <c r="L2" s="3" t="inlineStr"/>
       <c r="M2" s="2" t="n">
         <v>0</v>
       </c>
@@ -667,7 +667,7 @@
       <c r="K3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr"/>
       <c r="M3" s="2" t="n">
         <v>0</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="K4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr"/>
       <c r="M4" s="2" t="n">
         <v>0</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="K5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="3" t="n"/>
+      <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="2" t="n">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
       <c r="K6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L6" s="3" t="n"/>
+      <c r="L6" s="3" t="inlineStr"/>
       <c r="M6" s="2" t="n">
         <v>0</v>
       </c>
@@ -923,7 +923,7 @@
       <c r="K7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="3" t="n"/>
+      <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="2" t="n">
         <v>0</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="K8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="n"/>
+      <c r="L8" s="3" t="inlineStr"/>
       <c r="M8" s="2" t="n">
         <v>0</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="K9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="n"/>
+      <c r="L9" s="3" t="inlineStr"/>
       <c r="M9" s="2" t="n">
         <v>0</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="K10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="n"/>
+      <c r="L10" s="3" t="inlineStr"/>
       <c r="M10" s="2" t="n">
         <v>0</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="K11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="3" t="n"/>
+      <c r="L11" s="3" t="inlineStr"/>
       <c r="M11" s="2" t="n">
         <v>0</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="K12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="n"/>
+      <c r="L12" s="3" t="inlineStr"/>
       <c r="M12" s="2" t="n">
         <v>0</v>
       </c>
@@ -1307,7 +1307,7 @@
       <c r="K13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L13" s="3" t="n"/>
+      <c r="L13" s="3" t="inlineStr"/>
       <c r="M13" s="2" t="n">
         <v>0</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="K14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="n"/>
+      <c r="L14" s="3" t="inlineStr"/>
       <c r="M14" s="2" t="n">
         <v>0</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="K15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="n"/>
+      <c r="L15" s="3" t="inlineStr"/>
       <c r="M15" s="2" t="n">
         <v>0</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="K16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L16" s="3" t="n"/>
+      <c r="L16" s="3" t="inlineStr"/>
       <c r="M16" s="2" t="n">
         <v>0</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="K17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L17" s="3" t="n"/>
+      <c r="L17" s="3" t="inlineStr"/>
       <c r="M17" s="2" t="n">
         <v>0</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="K18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L18" s="3" t="n"/>
+      <c r="L18" s="3" t="inlineStr"/>
       <c r="M18" s="2" t="n">
         <v>0</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="K19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L19" s="3" t="n"/>
+      <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="2" t="n">
         <v>0</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="K20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="n"/>
+      <c r="L20" s="3" t="inlineStr"/>
       <c r="M20" s="2" t="n">
         <v>0</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="K21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L21" s="3" t="n"/>
+      <c r="L21" s="3" t="inlineStr"/>
       <c r="M21" s="2" t="n">
         <v>0</v>
       </c>
@@ -1883,7 +1883,7 @@
       <c r="K22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="n"/>
+      <c r="L22" s="3" t="inlineStr"/>
       <c r="M22" s="2" t="n">
         <v>0</v>
       </c>
@@ -1947,7 +1947,7 @@
       <c r="K23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L23" s="3" t="n"/>
+      <c r="L23" s="3" t="inlineStr"/>
       <c r="M23" s="2" t="n">
         <v>0</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="K24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="n"/>
+      <c r="L24" s="3" t="inlineStr"/>
       <c r="M24" s="2" t="n">
         <v>0</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="K25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L25" s="3" t="n"/>
+      <c r="L25" s="3" t="inlineStr"/>
       <c r="M25" s="2" t="n">
         <v>0</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="K26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="n"/>
+      <c r="L26" s="3" t="inlineStr"/>
       <c r="M26" s="2" t="n">
         <v>0</v>
       </c>
@@ -2203,7 +2203,7 @@
       <c r="K27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="n"/>
+      <c r="L27" s="3" t="inlineStr"/>
       <c r="M27" s="2" t="n">
         <v>0</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="K28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L28" s="3" t="n"/>
+      <c r="L28" s="3" t="inlineStr"/>
       <c r="M28" s="2" t="n">
         <v>0</v>
       </c>
@@ -5639,10 +5639,10 @@
         <v>0.300000000001985</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>0</v>
@@ -5651,13 +5651,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="3" t="n">
-        <v>6.902</v>
+        <v>5.94</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="J78" s="2" t="n">
         <v>0</v>
@@ -5666,13 +5666,13 @@
         <v>0</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>6.902</v>
+        <v>5.94</v>
       </c>
       <c r="M78" s="2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="N78" s="2" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="O78" s="2" t="n">
         <v>0</v>
@@ -5684,10 +5684,10 @@
         <v>8.800000000002351</v>
       </c>
       <c r="R78" s="2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="S78" s="2" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="T78" s="2" t="n">
         <v>0</v>
@@ -5719,13 +5719,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="3" t="n">
-        <v>7.115</v>
+        <v>6.085</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>0.12</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="J79" s="2" t="n">
         <v>0</v>
@@ -5734,13 +5734,13 @@
         <v>0</v>
       </c>
       <c r="L79" s="3" t="n">
-        <v>7.115</v>
+        <v>6.085</v>
       </c>
       <c r="M79" s="2" t="n">
         <v>0.25</v>
       </c>
       <c r="N79" s="2" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="O79" s="2" t="n">
         <v>0</v>
@@ -5787,13 +5787,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="3" t="n">
-        <v>7.277</v>
+        <v>6.357</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>0.12</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="J80" s="2" t="n">
         <v>0</v>
@@ -5802,13 +5802,13 @@
         <v>0</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>7.277</v>
+        <v>6.357</v>
       </c>
       <c r="M80" s="2" t="n">
         <v>0.24</v>
       </c>
       <c r="N80" s="2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="O80" s="2" t="n">
         <v>0</v>
@@ -5855,13 +5855,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="3" t="n">
-        <v>7.361</v>
+        <v>6.477</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>0.12</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="J81" s="2" t="n">
         <v>0</v>
@@ -5870,13 +5870,13 @@
         <v>0</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>7.361</v>
+        <v>6.477</v>
       </c>
       <c r="M81" s="2" t="n">
         <v>0.19</v>
       </c>
       <c r="N81" s="2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="O81" s="2" t="n">
         <v>0</v>
@@ -5923,13 +5923,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="3" t="n">
-        <v>7.368</v>
+        <v>6.474</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>0.12</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="J82" s="2" t="n">
         <v>0</v>
@@ -5938,13 +5938,13 @@
         <v>0</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>7.368</v>
+        <v>6.474</v>
       </c>
       <c r="M82" s="2" t="n">
         <v>0.19</v>
       </c>
       <c r="N82" s="2" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="O82" s="2" t="n">
         <v>0</v>
@@ -5979,10 +5979,10 @@
         <v>0.30000000000976</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>0</v>
@@ -5991,13 +5991,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="3" t="n">
-        <v>7.318</v>
+        <v>6.407</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J83" s="2" t="n">
         <v>0</v>
@@ -6006,13 +6006,13 @@
         <v>0</v>
       </c>
       <c r="L83" s="3" t="n">
-        <v>7.318</v>
+        <v>6.407</v>
       </c>
       <c r="M83" s="2" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="N83" s="2" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="O83" s="2" t="n">
         <v>0</v>
@@ -6024,10 +6024,10 @@
         <v>8.79999999999202</v>
       </c>
       <c r="R83" s="2" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="S83" s="2" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="T83" s="2" t="n">
         <v>0</v>
@@ -6047,10 +6047,10 @@
         <v>0.299999999996575</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>0</v>
@@ -6059,13 +6059,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="3" t="n">
-        <v>7.162</v>
+        <v>6.219</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="J84" s="2" t="n">
         <v>0</v>
@@ -6074,13 +6074,13 @@
         <v>0</v>
       </c>
       <c r="L84" s="3" t="n">
-        <v>7.162</v>
+        <v>6.219</v>
       </c>
       <c r="M84" s="2" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="N84" s="2" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="O84" s="2" t="n">
         <v>0</v>
@@ -6092,10 +6092,10 @@
         <v>8.80000000000147</v>
       </c>
       <c r="R84" s="2" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="S84" s="2" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="T84" s="2" t="n">
         <v>0</v>
@@ -6127,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="3" t="n">
-        <v>6.907</v>
+        <v>5.947</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>0.12</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="J85" s="2" t="n">
         <v>0</v>
@@ -6142,13 +6142,13 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>6.907</v>
+        <v>5.947</v>
       </c>
       <c r="M85" s="2" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="N85" s="2" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="O85" s="2" t="n">
         <v>0</v>
@@ -6160,10 +6160,10 @@
         <v>8.80000000000704</v>
       </c>
       <c r="R85" s="2" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="S85" s="2" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="T85" s="2" t="n">
         <v>0</v>
@@ -10559,7 +10559,7 @@
       <c r="K150" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L150" s="3" t="n"/>
+      <c r="L150" s="3" t="inlineStr"/>
       <c r="M150" s="2" t="n">
         <v>0</v>
       </c>
@@ -10623,7 +10623,7 @@
       <c r="K151" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L151" s="3" t="n"/>
+      <c r="L151" s="3" t="inlineStr"/>
       <c r="M151" s="2" t="n">
         <v>0</v>
       </c>
@@ -10687,7 +10687,7 @@
       <c r="K152" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L152" s="3" t="n"/>
+      <c r="L152" s="3" t="inlineStr"/>
       <c r="M152" s="2" t="n">
         <v>0</v>
       </c>
@@ -10751,7 +10751,7 @@
       <c r="K153" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L153" s="3" t="n"/>
+      <c r="L153" s="3" t="inlineStr"/>
       <c r="M153" s="2" t="n">
         <v>0</v>
       </c>
@@ -10815,7 +10815,7 @@
       <c r="K154" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L154" s="3" t="n"/>
+      <c r="L154" s="3" t="inlineStr"/>
       <c r="M154" s="2" t="n">
         <v>0</v>
       </c>
@@ -10879,7 +10879,7 @@
       <c r="K155" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L155" s="3" t="n"/>
+      <c r="L155" s="3" t="inlineStr"/>
       <c r="M155" s="2" t="n">
         <v>0</v>
       </c>
@@ -10943,7 +10943,7 @@
       <c r="K156" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L156" s="3" t="n"/>
+      <c r="L156" s="3" t="inlineStr"/>
       <c r="M156" s="2" t="n">
         <v>0</v>
       </c>
@@ -11007,7 +11007,7 @@
       <c r="K157" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L157" s="3" t="n"/>
+      <c r="L157" s="3" t="inlineStr"/>
       <c r="M157" s="2" t="n">
         <v>0</v>
       </c>
@@ -11071,7 +11071,7 @@
       <c r="K158" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L158" s="3" t="n"/>
+      <c r="L158" s="3" t="inlineStr"/>
       <c r="M158" s="2" t="n">
         <v>0</v>
       </c>
@@ -11135,7 +11135,7 @@
       <c r="K159" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L159" s="3" t="n"/>
+      <c r="L159" s="3" t="inlineStr"/>
       <c r="M159" s="2" t="n">
         <v>0</v>
       </c>
@@ -11199,7 +11199,7 @@
       <c r="K160" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L160" s="3" t="n"/>
+      <c r="L160" s="3" t="inlineStr"/>
       <c r="M160" s="2" t="n">
         <v>0</v>
       </c>
@@ -11263,7 +11263,7 @@
       <c r="K161" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L161" s="3" t="n"/>
+      <c r="L161" s="3" t="inlineStr"/>
       <c r="M161" s="2" t="n">
         <v>0</v>
       </c>
@@ -11327,7 +11327,7 @@
       <c r="K162" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L162" s="3" t="n"/>
+      <c r="L162" s="3" t="inlineStr"/>
       <c r="M162" s="2" t="n">
         <v>0</v>
       </c>
@@ -11391,7 +11391,7 @@
       <c r="K163" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L163" s="3" t="n"/>
+      <c r="L163" s="3" t="inlineStr"/>
       <c r="M163" s="2" t="n">
         <v>0</v>
       </c>
@@ -11455,7 +11455,7 @@
       <c r="K164" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L164" s="3" t="n"/>
+      <c r="L164" s="3" t="inlineStr"/>
       <c r="M164" s="2" t="n">
         <v>0</v>
       </c>
@@ -11519,7 +11519,7 @@
       <c r="K165" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L165" s="3" t="n"/>
+      <c r="L165" s="3" t="inlineStr"/>
       <c r="M165" s="2" t="n">
         <v>0</v>
       </c>
@@ -11583,7 +11583,7 @@
       <c r="K166" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L166" s="3" t="n"/>
+      <c r="L166" s="3" t="inlineStr"/>
       <c r="M166" s="2" t="n">
         <v>0</v>
       </c>
@@ -11647,7 +11647,7 @@
       <c r="K167" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L167" s="3" t="n"/>
+      <c r="L167" s="3" t="inlineStr"/>
       <c r="M167" s="2" t="n">
         <v>0</v>
       </c>
@@ -11711,7 +11711,7 @@
       <c r="K168" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L168" s="3" t="n"/>
+      <c r="L168" s="3" t="inlineStr"/>
       <c r="M168" s="2" t="n">
         <v>0</v>
       </c>
@@ -11775,7 +11775,7 @@
       <c r="K169" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L169" s="3" t="n"/>
+      <c r="L169" s="3" t="inlineStr"/>
       <c r="M169" s="2" t="n">
         <v>0</v>
       </c>
@@ -11839,7 +11839,7 @@
       <c r="K170" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L170" s="3" t="n"/>
+      <c r="L170" s="3" t="inlineStr"/>
       <c r="M170" s="2" t="n">
         <v>0</v>
       </c>
@@ -11903,7 +11903,7 @@
       <c r="K171" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L171" s="3" t="n"/>
+      <c r="L171" s="3" t="inlineStr"/>
       <c r="M171" s="2" t="n">
         <v>0</v>
       </c>
@@ -11967,7 +11967,7 @@
       <c r="K172" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L172" s="3" t="n"/>
+      <c r="L172" s="3" t="inlineStr"/>
       <c r="M172" s="2" t="n">
         <v>0</v>
       </c>
@@ -12031,7 +12031,7 @@
       <c r="K173" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L173" s="3" t="n"/>
+      <c r="L173" s="3" t="inlineStr"/>
       <c r="M173" s="2" t="n">
         <v>0</v>
       </c>
@@ -12095,7 +12095,7 @@
       <c r="K174" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L174" s="3" t="n"/>
+      <c r="L174" s="3" t="inlineStr"/>
       <c r="M174" s="2" t="n">
         <v>0</v>
       </c>
@@ -12157,7 +12157,7 @@
       <c r="K175" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L175" s="3" t="n"/>
+      <c r="L175" s="3" t="inlineStr"/>
       <c r="M175" s="2" t="n">
         <v>0</v>
       </c>
@@ -12170,7 +12170,7 @@
       <c r="P175" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q175" s="3" t="n"/>
+      <c r="Q175" s="3" t="inlineStr"/>
       <c r="R175" s="2" t="n">
         <v>0</v>
       </c>
@@ -12217,7 +12217,7 @@
       <c r="K176" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L176" s="3" t="n"/>
+      <c r="L176" s="3" t="inlineStr"/>
       <c r="M176" s="2" t="n">
         <v>0</v>
       </c>
@@ -12230,7 +12230,7 @@
       <c r="P176" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q176" s="3" t="n"/>
+      <c r="Q176" s="3" t="inlineStr"/>
       <c r="R176" s="2" t="n">
         <v>0</v>
       </c>
@@ -12277,7 +12277,7 @@
       <c r="K177" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L177" s="3" t="n"/>
+      <c r="L177" s="3" t="inlineStr"/>
       <c r="M177" s="2" t="n">
         <v>0</v>
       </c>
@@ -12290,7 +12290,7 @@
       <c r="P177" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q177" s="3" t="n"/>
+      <c r="Q177" s="3" t="inlineStr"/>
       <c r="R177" s="2" t="n">
         <v>0</v>
       </c>
@@ -12337,7 +12337,7 @@
       <c r="K178" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L178" s="3" t="n"/>
+      <c r="L178" s="3" t="inlineStr"/>
       <c r="M178" s="2" t="n">
         <v>0</v>
       </c>
@@ -12350,7 +12350,7 @@
       <c r="P178" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q178" s="3" t="n"/>
+      <c r="Q178" s="3" t="inlineStr"/>
       <c r="R178" s="2" t="n">
         <v>0</v>
       </c>
@@ -12397,7 +12397,7 @@
       <c r="K179" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L179" s="3" t="n"/>
+      <c r="L179" s="3" t="inlineStr"/>
       <c r="M179" s="2" t="n">
         <v>0</v>
       </c>
@@ -12410,7 +12410,7 @@
       <c r="P179" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q179" s="3" t="n"/>
+      <c r="Q179" s="3" t="inlineStr"/>
       <c r="R179" s="2" t="n">
         <v>0</v>
       </c>
@@ -12457,7 +12457,7 @@
       <c r="K180" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L180" s="3" t="n"/>
+      <c r="L180" s="3" t="inlineStr"/>
       <c r="M180" s="2" t="n">
         <v>0</v>
       </c>
@@ -12470,7 +12470,7 @@
       <c r="P180" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q180" s="3" t="n"/>
+      <c r="Q180" s="3" t="inlineStr"/>
       <c r="R180" s="2" t="n">
         <v>0</v>
       </c>
@@ -12519,7 +12519,7 @@
       <c r="K181" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L181" s="3" t="n"/>
+      <c r="L181" s="3" t="inlineStr"/>
       <c r="M181" s="2" t="n">
         <v>0</v>
       </c>
@@ -12583,7 +12583,7 @@
       <c r="K182" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L182" s="3" t="n"/>
+      <c r="L182" s="3" t="inlineStr"/>
       <c r="M182" s="2" t="n">
         <v>0</v>
       </c>
@@ -12647,7 +12647,7 @@
       <c r="K183" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L183" s="3" t="n"/>
+      <c r="L183" s="3" t="inlineStr"/>
       <c r="M183" s="2" t="n">
         <v>0</v>
       </c>
@@ -12711,7 +12711,7 @@
       <c r="K184" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L184" s="3" t="n"/>
+      <c r="L184" s="3" t="inlineStr"/>
       <c r="M184" s="2" t="n">
         <v>0</v>
       </c>
@@ -12775,7 +12775,7 @@
       <c r="K185" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L185" s="3" t="n"/>
+      <c r="L185" s="3" t="inlineStr"/>
       <c r="M185" s="2" t="n">
         <v>0</v>
       </c>
@@ -12839,7 +12839,7 @@
       <c r="K186" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L186" s="3" t="n"/>
+      <c r="L186" s="3" t="inlineStr"/>
       <c r="M186" s="2" t="n">
         <v>0</v>
       </c>
@@ -12903,7 +12903,7 @@
       <c r="K187" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L187" s="3" t="n"/>
+      <c r="L187" s="3" t="inlineStr"/>
       <c r="M187" s="2" t="n">
         <v>0</v>
       </c>
@@ -12967,7 +12967,7 @@
       <c r="K188" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L188" s="3" t="n"/>
+      <c r="L188" s="3" t="inlineStr"/>
       <c r="M188" s="2" t="n">
         <v>0</v>
       </c>
@@ -13031,7 +13031,7 @@
       <c r="K189" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L189" s="3" t="n"/>
+      <c r="L189" s="3" t="inlineStr"/>
       <c r="M189" s="2" t="n">
         <v>0</v>
       </c>
@@ -13095,7 +13095,7 @@
       <c r="K190" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L190" s="3" t="n"/>
+      <c r="L190" s="3" t="inlineStr"/>
       <c r="M190" s="2" t="n">
         <v>0</v>
       </c>
@@ -13159,7 +13159,7 @@
       <c r="K191" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L191" s="3" t="n"/>
+      <c r="L191" s="3" t="inlineStr"/>
       <c r="M191" s="2" t="n">
         <v>0</v>
       </c>
@@ -13223,7 +13223,7 @@
       <c r="K192" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L192" s="3" t="n"/>
+      <c r="L192" s="3" t="inlineStr"/>
       <c r="M192" s="2" t="n">
         <v>0</v>
       </c>
@@ -13287,7 +13287,7 @@
       <c r="K193" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L193" s="3" t="n"/>
+      <c r="L193" s="3" t="inlineStr"/>
       <c r="M193" s="2" t="n">
         <v>0</v>
       </c>
@@ -14779,7 +14779,7 @@
       <c r="K215" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L215" s="3" t="n"/>
+      <c r="L215" s="3" t="inlineStr"/>
       <c r="M215" s="2" t="n">
         <v>0</v>
       </c>
@@ -14843,7 +14843,7 @@
       <c r="K216" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L216" s="3" t="n"/>
+      <c r="L216" s="3" t="inlineStr"/>
       <c r="M216" s="2" t="n">
         <v>0</v>
       </c>
@@ -14907,7 +14907,7 @@
       <c r="K217" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L217" s="3" t="n"/>
+      <c r="L217" s="3" t="inlineStr"/>
       <c r="M217" s="2" t="n">
         <v>0</v>
       </c>
@@ -14971,7 +14971,7 @@
       <c r="K218" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L218" s="3" t="n"/>
+      <c r="L218" s="3" t="inlineStr"/>
       <c r="M218" s="2" t="n">
         <v>0</v>
       </c>
@@ -15035,7 +15035,7 @@
       <c r="K219" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L219" s="3" t="n"/>
+      <c r="L219" s="3" t="inlineStr"/>
       <c r="M219" s="2" t="n">
         <v>0</v>
       </c>
@@ -15097,7 +15097,7 @@
       <c r="K220" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L220" s="3" t="n"/>
+      <c r="L220" s="3" t="inlineStr"/>
       <c r="M220" s="2" t="n">
         <v>0</v>
       </c>
@@ -15110,7 +15110,7 @@
       <c r="P220" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q220" s="3" t="n"/>
+      <c r="Q220" s="3" t="inlineStr"/>
       <c r="R220" s="2" t="n">
         <v>0</v>
       </c>
@@ -15157,7 +15157,7 @@
       <c r="K221" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L221" s="3" t="n"/>
+      <c r="L221" s="3" t="inlineStr"/>
       <c r="M221" s="2" t="n">
         <v>0</v>
       </c>
@@ -15170,7 +15170,7 @@
       <c r="P221" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q221" s="3" t="n"/>
+      <c r="Q221" s="3" t="inlineStr"/>
       <c r="R221" s="2" t="n">
         <v>0</v>
       </c>
@@ -15217,7 +15217,7 @@
       <c r="K222" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L222" s="3" t="n"/>
+      <c r="L222" s="3" t="inlineStr"/>
       <c r="M222" s="2" t="n">
         <v>0</v>
       </c>
@@ -15230,7 +15230,7 @@
       <c r="P222" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q222" s="3" t="n"/>
+      <c r="Q222" s="3" t="inlineStr"/>
       <c r="R222" s="2" t="n">
         <v>0</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="K223" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L223" s="3" t="n"/>
+      <c r="L223" s="3" t="inlineStr"/>
       <c r="M223" s="2" t="n">
         <v>0</v>
       </c>
@@ -15290,7 +15290,7 @@
       <c r="P223" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q223" s="3" t="n"/>
+      <c r="Q223" s="3" t="inlineStr"/>
       <c r="R223" s="2" t="n">
         <v>0</v>
       </c>
@@ -15337,7 +15337,7 @@
       <c r="K224" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L224" s="3" t="n"/>
+      <c r="L224" s="3" t="inlineStr"/>
       <c r="M224" s="2" t="n">
         <v>0</v>
       </c>
@@ -15350,7 +15350,7 @@
       <c r="P224" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q224" s="3" t="n"/>
+      <c r="Q224" s="3" t="inlineStr"/>
       <c r="R224" s="2" t="n">
         <v>0</v>
       </c>
@@ -15397,7 +15397,7 @@
       <c r="K225" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L225" s="3" t="n"/>
+      <c r="L225" s="3" t="inlineStr"/>
       <c r="M225" s="2" t="n">
         <v>0</v>
       </c>
@@ -15410,7 +15410,7 @@
       <c r="P225" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q225" s="3" t="n"/>
+      <c r="Q225" s="3" t="inlineStr"/>
       <c r="R225" s="2" t="n">
         <v>0</v>
       </c>
@@ -15457,7 +15457,7 @@
       <c r="K226" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L226" s="3" t="n"/>
+      <c r="L226" s="3" t="inlineStr"/>
       <c r="M226" s="2" t="n">
         <v>0</v>
       </c>
@@ -15470,7 +15470,7 @@
       <c r="P226" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q226" s="3" t="n"/>
+      <c r="Q226" s="3" t="inlineStr"/>
       <c r="R226" s="2" t="n">
         <v>0</v>
       </c>
@@ -15517,7 +15517,7 @@
       <c r="K227" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L227" s="3" t="n"/>
+      <c r="L227" s="3" t="inlineStr"/>
       <c r="M227" s="2" t="n">
         <v>0</v>
       </c>
@@ -15530,7 +15530,7 @@
       <c r="P227" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q227" s="3" t="n"/>
+      <c r="Q227" s="3" t="inlineStr"/>
       <c r="R227" s="2" t="n">
         <v>0</v>
       </c>
@@ -15577,7 +15577,7 @@
       <c r="K228" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L228" s="3" t="n"/>
+      <c r="L228" s="3" t="inlineStr"/>
       <c r="M228" s="2" t="n">
         <v>0</v>
       </c>
@@ -15590,7 +15590,7 @@
       <c r="P228" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q228" s="3" t="n"/>
+      <c r="Q228" s="3" t="inlineStr"/>
       <c r="R228" s="2" t="n">
         <v>0</v>
       </c>
@@ -15637,7 +15637,7 @@
       <c r="K229" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L229" s="3" t="n"/>
+      <c r="L229" s="3" t="inlineStr"/>
       <c r="M229" s="2" t="n">
         <v>0</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="P229" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q229" s="3" t="n"/>
+      <c r="Q229" s="3" t="inlineStr"/>
       <c r="R229" s="2" t="n">
         <v>0</v>
       </c>
@@ -15697,7 +15697,7 @@
       <c r="K230" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L230" s="3" t="n"/>
+      <c r="L230" s="3" t="inlineStr"/>
       <c r="M230" s="2" t="n">
         <v>0</v>
       </c>
@@ -15710,7 +15710,7 @@
       <c r="P230" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q230" s="3" t="n"/>
+      <c r="Q230" s="3" t="inlineStr"/>
       <c r="R230" s="2" t="n">
         <v>0</v>
       </c>
@@ -15757,7 +15757,7 @@
       <c r="K231" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L231" s="3" t="n"/>
+      <c r="L231" s="3" t="inlineStr"/>
       <c r="M231" s="2" t="n">
         <v>0</v>
       </c>
@@ -15770,7 +15770,7 @@
       <c r="P231" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q231" s="3" t="n"/>
+      <c r="Q231" s="3" t="inlineStr"/>
       <c r="R231" s="2" t="n">
         <v>0</v>
       </c>
@@ -15817,7 +15817,7 @@
       <c r="K232" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L232" s="3" t="n"/>
+      <c r="L232" s="3" t="inlineStr"/>
       <c r="M232" s="2" t="n">
         <v>0</v>
       </c>
@@ -15830,7 +15830,7 @@
       <c r="P232" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q232" s="3" t="n"/>
+      <c r="Q232" s="3" t="inlineStr"/>
       <c r="R232" s="2" t="n">
         <v>0</v>
       </c>
@@ -15877,7 +15877,7 @@
       <c r="K233" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L233" s="3" t="n"/>
+      <c r="L233" s="3" t="inlineStr"/>
       <c r="M233" s="2" t="n">
         <v>0</v>
       </c>
@@ -15890,7 +15890,7 @@
       <c r="P233" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q233" s="3" t="n"/>
+      <c r="Q233" s="3" t="inlineStr"/>
       <c r="R233" s="2" t="n">
         <v>0</v>
       </c>
@@ -15937,7 +15937,7 @@
       <c r="K234" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L234" s="3" t="n"/>
+      <c r="L234" s="3" t="inlineStr"/>
       <c r="M234" s="2" t="n">
         <v>0</v>
       </c>
@@ -15950,7 +15950,7 @@
       <c r="P234" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q234" s="3" t="n"/>
+      <c r="Q234" s="3" t="inlineStr"/>
       <c r="R234" s="2" t="n">
         <v>0</v>
       </c>
@@ -15997,7 +15997,7 @@
       <c r="K235" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L235" s="3" t="n"/>
+      <c r="L235" s="3" t="inlineStr"/>
       <c r="M235" s="2" t="n">
         <v>0</v>
       </c>
@@ -16010,7 +16010,7 @@
       <c r="P235" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q235" s="3" t="n"/>
+      <c r="Q235" s="3" t="inlineStr"/>
       <c r="R235" s="2" t="n">
         <v>0</v>
       </c>
@@ -16059,7 +16059,7 @@
       <c r="K236" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L236" s="3" t="n"/>
+      <c r="L236" s="3" t="inlineStr"/>
       <c r="M236" s="2" t="n">
         <v>0</v>
       </c>
@@ -16123,7 +16123,7 @@
       <c r="K237" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L237" s="3" t="n"/>
+      <c r="L237" s="3" t="inlineStr"/>
       <c r="M237" s="2" t="n">
         <v>0</v>
       </c>
@@ -16187,7 +16187,7 @@
       <c r="K238" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L238" s="3" t="n"/>
+      <c r="L238" s="3" t="inlineStr"/>
       <c r="M238" s="2" t="n">
         <v>0</v>
       </c>
@@ -16251,7 +16251,7 @@
       <c r="K239" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L239" s="3" t="n"/>
+      <c r="L239" s="3" t="inlineStr"/>
       <c r="M239" s="2" t="n">
         <v>0</v>
       </c>
@@ -16315,7 +16315,7 @@
       <c r="K240" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L240" s="3" t="n"/>
+      <c r="L240" s="3" t="inlineStr"/>
       <c r="M240" s="2" t="n">
         <v>0</v>
       </c>
@@ -16379,7 +16379,7 @@
       <c r="K241" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L241" s="3" t="n"/>
+      <c r="L241" s="3" t="inlineStr"/>
       <c r="M241" s="2" t="n">
         <v>0</v>
       </c>
@@ -16443,7 +16443,7 @@
       <c r="K242" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L242" s="3" t="n"/>
+      <c r="L242" s="3" t="inlineStr"/>
       <c r="M242" s="2" t="n">
         <v>0</v>
       </c>
@@ -16507,7 +16507,7 @@
       <c r="K243" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L243" s="3" t="n"/>
+      <c r="L243" s="3" t="inlineStr"/>
       <c r="M243" s="2" t="n">
         <v>0</v>
       </c>
@@ -16571,7 +16571,7 @@
       <c r="K244" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L244" s="3" t="n"/>
+      <c r="L244" s="3" t="inlineStr"/>
       <c r="M244" s="2" t="n">
         <v>0</v>
       </c>
@@ -16635,7 +16635,7 @@
       <c r="K245" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L245" s="3" t="n"/>
+      <c r="L245" s="3" t="inlineStr"/>
       <c r="M245" s="2" t="n">
         <v>0</v>
       </c>
@@ -16699,7 +16699,7 @@
       <c r="K246" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L246" s="3" t="n"/>
+      <c r="L246" s="3" t="inlineStr"/>
       <c r="M246" s="2" t="n">
         <v>0</v>
       </c>
@@ -16763,7 +16763,7 @@
       <c r="K247" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L247" s="3" t="n"/>
+      <c r="L247" s="3" t="inlineStr"/>
       <c r="M247" s="2" t="n">
         <v>0</v>
       </c>
@@ -16827,7 +16827,7 @@
       <c r="K248" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L248" s="3" t="n"/>
+      <c r="L248" s="3" t="inlineStr"/>
       <c r="M248" s="2" t="n">
         <v>0</v>
       </c>
@@ -16891,7 +16891,7 @@
       <c r="K249" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L249" s="3" t="n"/>
+      <c r="L249" s="3" t="inlineStr"/>
       <c r="M249" s="2" t="n">
         <v>0</v>
       </c>
@@ -16955,7 +16955,7 @@
       <c r="K250" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L250" s="3" t="n"/>
+      <c r="L250" s="3" t="inlineStr"/>
       <c r="M250" s="2" t="n">
         <v>0</v>
       </c>
@@ -17019,7 +17019,7 @@
       <c r="K251" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L251" s="3" t="n"/>
+      <c r="L251" s="3" t="inlineStr"/>
       <c r="M251" s="2" t="n">
         <v>0</v>
       </c>
@@ -17083,7 +17083,7 @@
       <c r="K252" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L252" s="3" t="n"/>
+      <c r="L252" s="3" t="inlineStr"/>
       <c r="M252" s="2" t="n">
         <v>0</v>
       </c>
@@ -17147,7 +17147,7 @@
       <c r="K253" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L253" s="3" t="n"/>
+      <c r="L253" s="3" t="inlineStr"/>
       <c r="M253" s="2" t="n">
         <v>0</v>
       </c>
@@ -17211,7 +17211,7 @@
       <c r="K254" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L254" s="3" t="n"/>
+      <c r="L254" s="3" t="inlineStr"/>
       <c r="M254" s="2" t="n">
         <v>0</v>
       </c>
@@ -17275,7 +17275,7 @@
       <c r="K255" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L255" s="3" t="n"/>
+      <c r="L255" s="3" t="inlineStr"/>
       <c r="M255" s="2" t="n">
         <v>0</v>
       </c>
@@ -17339,7 +17339,7 @@
       <c r="K256" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L256" s="3" t="n"/>
+      <c r="L256" s="3" t="inlineStr"/>
       <c r="M256" s="2" t="n">
         <v>0</v>
       </c>
@@ -17403,7 +17403,7 @@
       <c r="K257" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L257" s="3" t="n"/>
+      <c r="L257" s="3" t="inlineStr"/>
       <c r="M257" s="2" t="n">
         <v>0</v>
       </c>
@@ -17467,7 +17467,7 @@
       <c r="K258" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L258" s="3" t="n"/>
+      <c r="L258" s="3" t="inlineStr"/>
       <c r="M258" s="2" t="n">
         <v>0</v>
       </c>
@@ -17531,7 +17531,7 @@
       <c r="K259" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L259" s="3" t="n"/>
+      <c r="L259" s="3" t="inlineStr"/>
       <c r="M259" s="2" t="n">
         <v>0</v>
       </c>
@@ -17595,7 +17595,7 @@
       <c r="K260" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L260" s="3" t="n"/>
+      <c r="L260" s="3" t="inlineStr"/>
       <c r="M260" s="2" t="n">
         <v>0</v>
       </c>
@@ -17659,7 +17659,7 @@
       <c r="K261" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L261" s="3" t="n"/>
+      <c r="L261" s="3" t="inlineStr"/>
       <c r="M261" s="2" t="n">
         <v>0</v>
       </c>
@@ -17723,7 +17723,7 @@
       <c r="K262" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L262" s="3" t="n"/>
+      <c r="L262" s="3" t="inlineStr"/>
       <c r="M262" s="2" t="n">
         <v>0</v>
       </c>
@@ -17787,7 +17787,7 @@
       <c r="K263" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L263" s="3" t="n"/>
+      <c r="L263" s="3" t="inlineStr"/>
       <c r="M263" s="2" t="n">
         <v>0</v>
       </c>
@@ -17851,7 +17851,7 @@
       <c r="K264" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L264" s="3" t="n"/>
+      <c r="L264" s="3" t="inlineStr"/>
       <c r="M264" s="2" t="n">
         <v>0</v>
       </c>
@@ -17915,7 +17915,7 @@
       <c r="K265" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L265" s="3" t="n"/>
+      <c r="L265" s="3" t="inlineStr"/>
       <c r="M265" s="2" t="n">
         <v>0</v>
       </c>
@@ -17979,7 +17979,7 @@
       <c r="K266" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L266" s="3" t="n"/>
+      <c r="L266" s="3" t="inlineStr"/>
       <c r="M266" s="2" t="n">
         <v>0</v>
       </c>
@@ -18043,7 +18043,7 @@
       <c r="K267" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L267" s="3" t="n"/>
+      <c r="L267" s="3" t="inlineStr"/>
       <c r="M267" s="2" t="n">
         <v>0</v>
       </c>
@@ -18107,7 +18107,7 @@
       <c r="K268" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L268" s="3" t="n"/>
+      <c r="L268" s="3" t="inlineStr"/>
       <c r="M268" s="2" t="n">
         <v>0</v>
       </c>
@@ -18171,7 +18171,7 @@
       <c r="K269" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L269" s="3" t="n"/>
+      <c r="L269" s="3" t="inlineStr"/>
       <c r="M269" s="2" t="n">
         <v>0</v>
       </c>
@@ -18235,7 +18235,7 @@
       <c r="K270" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L270" s="3" t="n"/>
+      <c r="L270" s="3" t="inlineStr"/>
       <c r="M270" s="2" t="n">
         <v>0</v>
       </c>
@@ -18299,7 +18299,7 @@
       <c r="K271" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L271" s="3" t="n"/>
+      <c r="L271" s="3" t="inlineStr"/>
       <c r="M271" s="2" t="n">
         <v>0</v>
       </c>
@@ -18363,7 +18363,7 @@
       <c r="K272" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L272" s="3" t="n"/>
+      <c r="L272" s="3" t="inlineStr"/>
       <c r="M272" s="2" t="n">
         <v>0</v>
       </c>
@@ -18427,7 +18427,7 @@
       <c r="K273" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L273" s="3" t="n"/>
+      <c r="L273" s="3" t="inlineStr"/>
       <c r="M273" s="2" t="n">
         <v>0</v>
       </c>
@@ -18491,7 +18491,7 @@
       <c r="K274" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L274" s="3" t="n"/>
+      <c r="L274" s="3" t="inlineStr"/>
       <c r="M274" s="2" t="n">
         <v>0</v>
       </c>
@@ -18555,7 +18555,7 @@
       <c r="K275" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L275" s="3" t="n"/>
+      <c r="L275" s="3" t="inlineStr"/>
       <c r="M275" s="2" t="n">
         <v>0</v>
       </c>
@@ -18619,7 +18619,7 @@
       <c r="K276" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L276" s="3" t="n"/>
+      <c r="L276" s="3" t="inlineStr"/>
       <c r="M276" s="2" t="n">
         <v>0</v>
       </c>
@@ -18683,7 +18683,7 @@
       <c r="K277" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L277" s="3" t="n"/>
+      <c r="L277" s="3" t="inlineStr"/>
       <c r="M277" s="2" t="n">
         <v>0</v>
       </c>
@@ -26023,7 +26023,7 @@
       <c r="K385" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L385" s="3" t="n"/>
+      <c r="L385" s="3" t="inlineStr"/>
       <c r="M385" s="2" t="n">
         <v>0</v>
       </c>
@@ -30235,7 +30235,7 @@
       <c r="K447" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L447" s="3" t="n"/>
+      <c r="L447" s="3" t="inlineStr"/>
       <c r="M447" s="2" t="n">
         <v>0</v>
       </c>
@@ -30299,7 +30299,7 @@
       <c r="K448" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L448" s="3" t="n"/>
+      <c r="L448" s="3" t="inlineStr"/>
       <c r="M448" s="2" t="n">
         <v>0</v>
       </c>
@@ -30363,7 +30363,7 @@
       <c r="K449" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L449" s="3" t="n"/>
+      <c r="L449" s="3" t="inlineStr"/>
       <c r="M449" s="2" t="n">
         <v>0</v>
       </c>
@@ -30427,7 +30427,7 @@
       <c r="K450" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L450" s="3" t="n"/>
+      <c r="L450" s="3" t="inlineStr"/>
       <c r="M450" s="2" t="n">
         <v>0</v>
       </c>
@@ -30491,7 +30491,7 @@
       <c r="K451" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L451" s="3" t="n"/>
+      <c r="L451" s="3" t="inlineStr"/>
       <c r="M451" s="2" t="n">
         <v>0</v>
       </c>
@@ -30555,7 +30555,7 @@
       <c r="K452" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L452" s="3" t="n"/>
+      <c r="L452" s="3" t="inlineStr"/>
       <c r="M452" s="2" t="n">
         <v>0</v>
       </c>
@@ -30619,7 +30619,7 @@
       <c r="K453" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L453" s="3" t="n"/>
+      <c r="L453" s="3" t="inlineStr"/>
       <c r="M453" s="2" t="n">
         <v>0</v>
       </c>
@@ -30683,7 +30683,7 @@
       <c r="K454" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L454" s="3" t="n"/>
+      <c r="L454" s="3" t="inlineStr"/>
       <c r="M454" s="2" t="n">
         <v>0</v>
       </c>
@@ -30747,7 +30747,7 @@
       <c r="K455" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L455" s="3" t="n"/>
+      <c r="L455" s="3" t="inlineStr"/>
       <c r="M455" s="2" t="n">
         <v>0</v>
       </c>
@@ -30811,7 +30811,7 @@
       <c r="K456" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L456" s="3" t="n"/>
+      <c r="L456" s="3" t="inlineStr"/>
       <c r="M456" s="2" t="n">
         <v>0</v>
       </c>
@@ -30875,7 +30875,7 @@
       <c r="K457" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L457" s="3" t="n"/>
+      <c r="L457" s="3" t="inlineStr"/>
       <c r="M457" s="2" t="n">
         <v>0</v>
       </c>
@@ -30939,7 +30939,7 @@
       <c r="K458" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L458" s="3" t="n"/>
+      <c r="L458" s="3" t="inlineStr"/>
       <c r="M458" s="2" t="n">
         <v>0</v>
       </c>
@@ -31003,7 +31003,7 @@
       <c r="K459" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L459" s="3" t="n"/>
+      <c r="L459" s="3" t="inlineStr"/>
       <c r="M459" s="2" t="n">
         <v>0</v>
       </c>
@@ -31067,7 +31067,7 @@
       <c r="K460" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L460" s="3" t="n"/>
+      <c r="L460" s="3" t="inlineStr"/>
       <c r="M460" s="2" t="n">
         <v>0</v>
       </c>
@@ -31131,7 +31131,7 @@
       <c r="K461" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L461" s="3" t="n"/>
+      <c r="L461" s="3" t="inlineStr"/>
       <c r="M461" s="2" t="n">
         <v>0</v>
       </c>
@@ -31195,7 +31195,7 @@
       <c r="K462" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L462" s="3" t="n"/>
+      <c r="L462" s="3" t="inlineStr"/>
       <c r="M462" s="2" t="n">
         <v>0</v>
       </c>
@@ -31259,7 +31259,7 @@
       <c r="K463" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L463" s="3" t="n"/>
+      <c r="L463" s="3" t="inlineStr"/>
       <c r="M463" s="2" t="n">
         <v>0</v>
       </c>
@@ -31323,7 +31323,7 @@
       <c r="K464" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L464" s="3" t="n"/>
+      <c r="L464" s="3" t="inlineStr"/>
       <c r="M464" s="2" t="n">
         <v>0</v>
       </c>
@@ -31387,7 +31387,7 @@
       <c r="K465" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L465" s="3" t="n"/>
+      <c r="L465" s="3" t="inlineStr"/>
       <c r="M465" s="2" t="n">
         <v>0</v>
       </c>
@@ -31449,7 +31449,7 @@
       <c r="K466" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L466" s="3" t="n"/>
+      <c r="L466" s="3" t="inlineStr"/>
       <c r="M466" s="2" t="n">
         <v>0</v>
       </c>
@@ -31462,7 +31462,7 @@
       <c r="P466" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q466" s="3" t="n"/>
+      <c r="Q466" s="3" t="inlineStr"/>
       <c r="R466" s="2" t="n">
         <v>0</v>
       </c>
@@ -31509,7 +31509,7 @@
       <c r="K467" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L467" s="3" t="n"/>
+      <c r="L467" s="3" t="inlineStr"/>
       <c r="M467" s="2" t="n">
         <v>0</v>
       </c>
@@ -31522,7 +31522,7 @@
       <c r="P467" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q467" s="3" t="n"/>
+      <c r="Q467" s="3" t="inlineStr"/>
       <c r="R467" s="2" t="n">
         <v>0</v>
       </c>
@@ -31569,7 +31569,7 @@
       <c r="K468" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L468" s="3" t="n"/>
+      <c r="L468" s="3" t="inlineStr"/>
       <c r="M468" s="2" t="n">
         <v>0</v>
       </c>
@@ -31582,7 +31582,7 @@
       <c r="P468" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q468" s="3" t="n"/>
+      <c r="Q468" s="3" t="inlineStr"/>
       <c r="R468" s="2" t="n">
         <v>0</v>
       </c>
@@ -31629,7 +31629,7 @@
       <c r="K469" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L469" s="3" t="n"/>
+      <c r="L469" s="3" t="inlineStr"/>
       <c r="M469" s="2" t="n">
         <v>0</v>
       </c>
@@ -31642,7 +31642,7 @@
       <c r="P469" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q469" s="3" t="n"/>
+      <c r="Q469" s="3" t="inlineStr"/>
       <c r="R469" s="2" t="n">
         <v>0</v>
       </c>
@@ -31689,7 +31689,7 @@
       <c r="K470" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L470" s="3" t="n"/>
+      <c r="L470" s="3" t="inlineStr"/>
       <c r="M470" s="2" t="n">
         <v>0</v>
       </c>
@@ -31702,7 +31702,7 @@
       <c r="P470" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q470" s="3" t="n"/>
+      <c r="Q470" s="3" t="inlineStr"/>
       <c r="R470" s="2" t="n">
         <v>0</v>
       </c>
@@ -31749,7 +31749,7 @@
       <c r="K471" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L471" s="3" t="n"/>
+      <c r="L471" s="3" t="inlineStr"/>
       <c r="M471" s="2" t="n">
         <v>0</v>
       </c>
@@ -31762,7 +31762,7 @@
       <c r="P471" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q471" s="3" t="n"/>
+      <c r="Q471" s="3" t="inlineStr"/>
       <c r="R471" s="2" t="n">
         <v>0</v>
       </c>
@@ -31809,7 +31809,7 @@
       <c r="K472" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L472" s="3" t="n"/>
+      <c r="L472" s="3" t="inlineStr"/>
       <c r="M472" s="2" t="n">
         <v>0</v>
       </c>
@@ -31822,7 +31822,7 @@
       <c r="P472" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q472" s="3" t="n"/>
+      <c r="Q472" s="3" t="inlineStr"/>
       <c r="R472" s="2" t="n">
         <v>0</v>
       </c>
@@ -31869,7 +31869,7 @@
       <c r="K473" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L473" s="3" t="n"/>
+      <c r="L473" s="3" t="inlineStr"/>
       <c r="M473" s="2" t="n">
         <v>0</v>
       </c>
@@ -31882,7 +31882,7 @@
       <c r="P473" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q473" s="3" t="n"/>
+      <c r="Q473" s="3" t="inlineStr"/>
       <c r="R473" s="2" t="n">
         <v>0</v>
       </c>
@@ -31929,7 +31929,7 @@
       <c r="K474" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L474" s="3" t="n"/>
+      <c r="L474" s="3" t="inlineStr"/>
       <c r="M474" s="2" t="n">
         <v>0</v>
       </c>
@@ -31942,7 +31942,7 @@
       <c r="P474" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q474" s="3" t="n"/>
+      <c r="Q474" s="3" t="inlineStr"/>
       <c r="R474" s="2" t="n">
         <v>0</v>
       </c>
@@ -31989,7 +31989,7 @@
       <c r="K475" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L475" s="3" t="n"/>
+      <c r="L475" s="3" t="inlineStr"/>
       <c r="M475" s="2" t="n">
         <v>0</v>
       </c>
@@ -32002,7 +32002,7 @@
       <c r="P475" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q475" s="3" t="n"/>
+      <c r="Q475" s="3" t="inlineStr"/>
       <c r="R475" s="2" t="n">
         <v>0</v>
       </c>
@@ -32049,7 +32049,7 @@
       <c r="K476" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L476" s="3" t="n"/>
+      <c r="L476" s="3" t="inlineStr"/>
       <c r="M476" s="2" t="n">
         <v>0</v>
       </c>
@@ -32062,7 +32062,7 @@
       <c r="P476" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q476" s="3" t="n"/>
+      <c r="Q476" s="3" t="inlineStr"/>
       <c r="R476" s="2" t="n">
         <v>0</v>
       </c>
@@ -32109,7 +32109,7 @@
       <c r="K477" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L477" s="3" t="n"/>
+      <c r="L477" s="3" t="inlineStr"/>
       <c r="M477" s="2" t="n">
         <v>0</v>
       </c>
@@ -32122,7 +32122,7 @@
       <c r="P477" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q477" s="3" t="n"/>
+      <c r="Q477" s="3" t="inlineStr"/>
       <c r="R477" s="2" t="n">
         <v>0</v>
       </c>
@@ -32169,7 +32169,7 @@
       <c r="K478" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L478" s="3" t="n"/>
+      <c r="L478" s="3" t="inlineStr"/>
       <c r="M478" s="2" t="n">
         <v>0</v>
       </c>
@@ -32182,7 +32182,7 @@
       <c r="P478" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q478" s="3" t="n"/>
+      <c r="Q478" s="3" t="inlineStr"/>
       <c r="R478" s="2" t="n">
         <v>0</v>
       </c>
@@ -32229,7 +32229,7 @@
       <c r="K479" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L479" s="3" t="n"/>
+      <c r="L479" s="3" t="inlineStr"/>
       <c r="M479" s="2" t="n">
         <v>0</v>
       </c>
@@ -32242,7 +32242,7 @@
       <c r="P479" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q479" s="3" t="n"/>
+      <c r="Q479" s="3" t="inlineStr"/>
       <c r="R479" s="2" t="n">
         <v>0</v>
       </c>
@@ -32289,7 +32289,7 @@
       <c r="K480" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L480" s="3" t="n"/>
+      <c r="L480" s="3" t="inlineStr"/>
       <c r="M480" s="2" t="n">
         <v>0</v>
       </c>
@@ -32302,7 +32302,7 @@
       <c r="P480" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q480" s="3" t="n"/>
+      <c r="Q480" s="3" t="inlineStr"/>
       <c r="R480" s="2" t="n">
         <v>0</v>
       </c>
@@ -32349,7 +32349,7 @@
       <c r="K481" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L481" s="3" t="n"/>
+      <c r="L481" s="3" t="inlineStr"/>
       <c r="M481" s="2" t="n">
         <v>0</v>
       </c>
@@ -32362,7 +32362,7 @@
       <c r="P481" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q481" s="3" t="n"/>
+      <c r="Q481" s="3" t="inlineStr"/>
       <c r="R481" s="2" t="n">
         <v>0</v>
       </c>
@@ -32409,7 +32409,7 @@
       <c r="K482" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L482" s="3" t="n"/>
+      <c r="L482" s="3" t="inlineStr"/>
       <c r="M482" s="2" t="n">
         <v>0</v>
       </c>
@@ -32422,7 +32422,7 @@
       <c r="P482" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q482" s="3" t="n"/>
+      <c r="Q482" s="3" t="inlineStr"/>
       <c r="R482" s="2" t="n">
         <v>0</v>
       </c>
@@ -32469,7 +32469,7 @@
       <c r="K483" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L483" s="3" t="n"/>
+      <c r="L483" s="3" t="inlineStr"/>
       <c r="M483" s="2" t="n">
         <v>0</v>
       </c>
@@ -32482,7 +32482,7 @@
       <c r="P483" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q483" s="3" t="n"/>
+      <c r="Q483" s="3" t="inlineStr"/>
       <c r="R483" s="2" t="n">
         <v>0</v>
       </c>
@@ -32529,7 +32529,7 @@
       <c r="K484" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L484" s="3" t="n"/>
+      <c r="L484" s="3" t="inlineStr"/>
       <c r="M484" s="2" t="n">
         <v>0</v>
       </c>
@@ -32542,7 +32542,7 @@
       <c r="P484" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q484" s="3" t="n"/>
+      <c r="Q484" s="3" t="inlineStr"/>
       <c r="R484" s="2" t="n">
         <v>0</v>
       </c>
@@ -32589,7 +32589,7 @@
       <c r="K485" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L485" s="3" t="n"/>
+      <c r="L485" s="3" t="inlineStr"/>
       <c r="M485" s="2" t="n">
         <v>0</v>
       </c>
@@ -32602,7 +32602,7 @@
       <c r="P485" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q485" s="3" t="n"/>
+      <c r="Q485" s="3" t="inlineStr"/>
       <c r="R485" s="2" t="n">
         <v>0</v>
       </c>
@@ -32649,7 +32649,7 @@
       <c r="K486" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L486" s="3" t="n"/>
+      <c r="L486" s="3" t="inlineStr"/>
       <c r="M486" s="2" t="n">
         <v>0</v>
       </c>
@@ -32662,7 +32662,7 @@
       <c r="P486" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q486" s="3" t="n"/>
+      <c r="Q486" s="3" t="inlineStr"/>
       <c r="R486" s="2" t="n">
         <v>0</v>
       </c>
@@ -32709,7 +32709,7 @@
       <c r="K487" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L487" s="3" t="n"/>
+      <c r="L487" s="3" t="inlineStr"/>
       <c r="M487" s="2" t="n">
         <v>0</v>
       </c>
@@ -32722,7 +32722,7 @@
       <c r="P487" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q487" s="3" t="n"/>
+      <c r="Q487" s="3" t="inlineStr"/>
       <c r="R487" s="2" t="n">
         <v>0</v>
       </c>
@@ -32769,7 +32769,7 @@
       <c r="K488" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L488" s="3" t="n"/>
+      <c r="L488" s="3" t="inlineStr"/>
       <c r="M488" s="2" t="n">
         <v>0</v>
       </c>
@@ -32782,7 +32782,7 @@
       <c r="P488" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q488" s="3" t="n"/>
+      <c r="Q488" s="3" t="inlineStr"/>
       <c r="R488" s="2" t="n">
         <v>0</v>
       </c>
@@ -32829,7 +32829,7 @@
       <c r="K489" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L489" s="3" t="n"/>
+      <c r="L489" s="3" t="inlineStr"/>
       <c r="M489" s="2" t="n">
         <v>0</v>
       </c>
@@ -32842,7 +32842,7 @@
       <c r="P489" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q489" s="3" t="n"/>
+      <c r="Q489" s="3" t="inlineStr"/>
       <c r="R489" s="2" t="n">
         <v>0</v>
       </c>
@@ -32889,7 +32889,7 @@
       <c r="K490" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L490" s="3" t="n"/>
+      <c r="L490" s="3" t="inlineStr"/>
       <c r="M490" s="2" t="n">
         <v>0</v>
       </c>
@@ -32902,7 +32902,7 @@
       <c r="P490" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q490" s="3" t="n"/>
+      <c r="Q490" s="3" t="inlineStr"/>
       <c r="R490" s="2" t="n">
         <v>0</v>
       </c>
@@ -32949,7 +32949,7 @@
       <c r="K491" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L491" s="3" t="n"/>
+      <c r="L491" s="3" t="inlineStr"/>
       <c r="M491" s="2" t="n">
         <v>0</v>
       </c>
@@ -32962,7 +32962,7 @@
       <c r="P491" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q491" s="3" t="n"/>
+      <c r="Q491" s="3" t="inlineStr"/>
       <c r="R491" s="2" t="n">
         <v>0</v>
       </c>
@@ -33009,7 +33009,7 @@
       <c r="K492" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L492" s="3" t="n"/>
+      <c r="L492" s="3" t="inlineStr"/>
       <c r="M492" s="2" t="n">
         <v>0</v>
       </c>
@@ -33022,7 +33022,7 @@
       <c r="P492" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q492" s="3" t="n"/>
+      <c r="Q492" s="3" t="inlineStr"/>
       <c r="R492" s="2" t="n">
         <v>0</v>
       </c>
@@ -33069,7 +33069,7 @@
       <c r="K493" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L493" s="3" t="n"/>
+      <c r="L493" s="3" t="inlineStr"/>
       <c r="M493" s="2" t="n">
         <v>0</v>
       </c>
@@ -33082,7 +33082,7 @@
       <c r="P493" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q493" s="3" t="n"/>
+      <c r="Q493" s="3" t="inlineStr"/>
       <c r="R493" s="2" t="n">
         <v>0</v>
       </c>
@@ -33129,7 +33129,7 @@
       <c r="K494" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L494" s="3" t="n"/>
+      <c r="L494" s="3" t="inlineStr"/>
       <c r="M494" s="2" t="n">
         <v>0</v>
       </c>
@@ -33142,7 +33142,7 @@
       <c r="P494" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q494" s="3" t="n"/>
+      <c r="Q494" s="3" t="inlineStr"/>
       <c r="R494" s="2" t="n">
         <v>0</v>
       </c>
@@ -33189,7 +33189,7 @@
       <c r="K495" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L495" s="3" t="n"/>
+      <c r="L495" s="3" t="inlineStr"/>
       <c r="M495" s="2" t="n">
         <v>0</v>
       </c>
@@ -33202,7 +33202,7 @@
       <c r="P495" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q495" s="3" t="n"/>
+      <c r="Q495" s="3" t="inlineStr"/>
       <c r="R495" s="2" t="n">
         <v>0</v>
       </c>
@@ -33249,7 +33249,7 @@
       <c r="K496" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L496" s="3" t="n"/>
+      <c r="L496" s="3" t="inlineStr"/>
       <c r="M496" s="2" t="n">
         <v>0</v>
       </c>
@@ -33262,7 +33262,7 @@
       <c r="P496" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q496" s="3" t="n"/>
+      <c r="Q496" s="3" t="inlineStr"/>
       <c r="R496" s="2" t="n">
         <v>0</v>
       </c>
@@ -33309,7 +33309,7 @@
       <c r="K497" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L497" s="3" t="n"/>
+      <c r="L497" s="3" t="inlineStr"/>
       <c r="M497" s="2" t="n">
         <v>0</v>
       </c>
@@ -33322,7 +33322,7 @@
       <c r="P497" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q497" s="3" t="n"/>
+      <c r="Q497" s="3" t="inlineStr"/>
       <c r="R497" s="2" t="n">
         <v>0</v>
       </c>
@@ -33369,7 +33369,7 @@
       <c r="K498" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L498" s="3" t="n"/>
+      <c r="L498" s="3" t="inlineStr"/>
       <c r="M498" s="2" t="n">
         <v>0</v>
       </c>
@@ -33382,7 +33382,7 @@
       <c r="P498" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q498" s="3" t="n"/>
+      <c r="Q498" s="3" t="inlineStr"/>
       <c r="R498" s="2" t="n">
         <v>0</v>
       </c>
@@ -33429,7 +33429,7 @@
       <c r="K499" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L499" s="3" t="n"/>
+      <c r="L499" s="3" t="inlineStr"/>
       <c r="M499" s="2" t="n">
         <v>0</v>
       </c>
@@ -33442,7 +33442,7 @@
       <c r="P499" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q499" s="3" t="n"/>
+      <c r="Q499" s="3" t="inlineStr"/>
       <c r="R499" s="2" t="n">
         <v>0</v>
       </c>
@@ -33489,7 +33489,7 @@
       <c r="K500" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L500" s="3" t="n"/>
+      <c r="L500" s="3" t="inlineStr"/>
       <c r="M500" s="2" t="n">
         <v>0</v>
       </c>
@@ -33502,7 +33502,7 @@
       <c r="P500" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q500" s="3" t="n"/>
+      <c r="Q500" s="3" t="inlineStr"/>
       <c r="R500" s="2" t="n">
         <v>0</v>
       </c>
@@ -33549,7 +33549,7 @@
       <c r="K501" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L501" s="3" t="n"/>
+      <c r="L501" s="3" t="inlineStr"/>
       <c r="M501" s="2" t="n">
         <v>0</v>
       </c>
@@ -33562,7 +33562,7 @@
       <c r="P501" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q501" s="3" t="n"/>
+      <c r="Q501" s="3" t="inlineStr"/>
       <c r="R501" s="2" t="n">
         <v>0</v>
       </c>
@@ -33609,7 +33609,7 @@
       <c r="K502" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L502" s="3" t="n"/>
+      <c r="L502" s="3" t="inlineStr"/>
       <c r="M502" s="2" t="n">
         <v>0</v>
       </c>
@@ -33622,7 +33622,7 @@
       <c r="P502" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q502" s="3" t="n"/>
+      <c r="Q502" s="3" t="inlineStr"/>
       <c r="R502" s="2" t="n">
         <v>0</v>
       </c>
@@ -33669,7 +33669,7 @@
       <c r="K503" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L503" s="3" t="n"/>
+      <c r="L503" s="3" t="inlineStr"/>
       <c r="M503" s="2" t="n">
         <v>0</v>
       </c>
@@ -33682,7 +33682,7 @@
       <c r="P503" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q503" s="3" t="n"/>
+      <c r="Q503" s="3" t="inlineStr"/>
       <c r="R503" s="2" t="n">
         <v>0</v>
       </c>
@@ -33729,7 +33729,7 @@
       <c r="K504" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L504" s="3" t="n"/>
+      <c r="L504" s="3" t="inlineStr"/>
       <c r="M504" s="2" t="n">
         <v>0</v>
       </c>
@@ -33742,7 +33742,7 @@
       <c r="P504" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q504" s="3" t="n"/>
+      <c r="Q504" s="3" t="inlineStr"/>
       <c r="R504" s="2" t="n">
         <v>0</v>
       </c>
@@ -33789,7 +33789,7 @@
       <c r="K505" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L505" s="3" t="n"/>
+      <c r="L505" s="3" t="inlineStr"/>
       <c r="M505" s="2" t="n">
         <v>0</v>
       </c>
@@ -33802,7 +33802,7 @@
       <c r="P505" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q505" s="3" t="n"/>
+      <c r="Q505" s="3" t="inlineStr"/>
       <c r="R505" s="2" t="n">
         <v>0</v>
       </c>
@@ -33849,7 +33849,7 @@
       <c r="K506" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L506" s="3" t="n"/>
+      <c r="L506" s="3" t="inlineStr"/>
       <c r="M506" s="2" t="n">
         <v>0</v>
       </c>
@@ -33862,7 +33862,7 @@
       <c r="P506" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q506" s="3" t="n"/>
+      <c r="Q506" s="3" t="inlineStr"/>
       <c r="R506" s="2" t="n">
         <v>0</v>
       </c>
@@ -33909,7 +33909,7 @@
       <c r="K507" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L507" s="3" t="n"/>
+      <c r="L507" s="3" t="inlineStr"/>
       <c r="M507" s="2" t="n">
         <v>0</v>
       </c>
@@ -33922,7 +33922,7 @@
       <c r="P507" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q507" s="3" t="n"/>
+      <c r="Q507" s="3" t="inlineStr"/>
       <c r="R507" s="2" t="n">
         <v>0</v>
       </c>
@@ -33969,7 +33969,7 @@
       <c r="K508" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L508" s="3" t="n"/>
+      <c r="L508" s="3" t="inlineStr"/>
       <c r="M508" s="2" t="n">
         <v>0</v>
       </c>
@@ -33982,7 +33982,7 @@
       <c r="P508" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q508" s="3" t="n"/>
+      <c r="Q508" s="3" t="inlineStr"/>
       <c r="R508" s="2" t="n">
         <v>0</v>
       </c>
@@ -34029,7 +34029,7 @@
       <c r="K509" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L509" s="3" t="n"/>
+      <c r="L509" s="3" t="inlineStr"/>
       <c r="M509" s="2" t="n">
         <v>0</v>
       </c>
@@ -34042,7 +34042,7 @@
       <c r="P509" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q509" s="3" t="n"/>
+      <c r="Q509" s="3" t="inlineStr"/>
       <c r="R509" s="2" t="n">
         <v>0</v>
       </c>
@@ -34089,7 +34089,7 @@
       <c r="K510" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L510" s="3" t="n"/>
+      <c r="L510" s="3" t="inlineStr"/>
       <c r="M510" s="2" t="n">
         <v>0</v>
       </c>
@@ -34102,7 +34102,7 @@
       <c r="P510" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q510" s="3" t="n"/>
+      <c r="Q510" s="3" t="inlineStr"/>
       <c r="R510" s="2" t="n">
         <v>0</v>
       </c>
@@ -34149,7 +34149,7 @@
       <c r="K511" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L511" s="3" t="n"/>
+      <c r="L511" s="3" t="inlineStr"/>
       <c r="M511" s="2" t="n">
         <v>0</v>
       </c>
@@ -34162,7 +34162,7 @@
       <c r="P511" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q511" s="3" t="n"/>
+      <c r="Q511" s="3" t="inlineStr"/>
       <c r="R511" s="2" t="n">
         <v>0</v>
       </c>
@@ -34209,7 +34209,7 @@
       <c r="K512" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L512" s="3" t="n"/>
+      <c r="L512" s="3" t="inlineStr"/>
       <c r="M512" s="2" t="n">
         <v>0</v>
       </c>
@@ -34222,7 +34222,7 @@
       <c r="P512" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q512" s="3" t="n"/>
+      <c r="Q512" s="3" t="inlineStr"/>
       <c r="R512" s="2" t="n">
         <v>0</v>
       </c>
@@ -34269,7 +34269,7 @@
       <c r="K513" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L513" s="3" t="n"/>
+      <c r="L513" s="3" t="inlineStr"/>
       <c r="M513" s="2" t="n">
         <v>0</v>
       </c>
@@ -34282,7 +34282,7 @@
       <c r="P513" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q513" s="3" t="n"/>
+      <c r="Q513" s="3" t="inlineStr"/>
       <c r="R513" s="2" t="n">
         <v>0</v>
       </c>
@@ -34329,7 +34329,7 @@
       <c r="K514" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L514" s="3" t="n"/>
+      <c r="L514" s="3" t="inlineStr"/>
       <c r="M514" s="2" t="n">
         <v>0</v>
       </c>
@@ -34342,7 +34342,7 @@
       <c r="P514" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q514" s="3" t="n"/>
+      <c r="Q514" s="3" t="inlineStr"/>
       <c r="R514" s="2" t="n">
         <v>0</v>
       </c>
@@ -34389,7 +34389,7 @@
       <c r="K515" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L515" s="3" t="n"/>
+      <c r="L515" s="3" t="inlineStr"/>
       <c r="M515" s="2" t="n">
         <v>0</v>
       </c>
@@ -34402,7 +34402,7 @@
       <c r="P515" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q515" s="3" t="n"/>
+      <c r="Q515" s="3" t="inlineStr"/>
       <c r="R515" s="2" t="n">
         <v>0</v>
       </c>
@@ -34449,7 +34449,7 @@
       <c r="K516" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L516" s="3" t="n"/>
+      <c r="L516" s="3" t="inlineStr"/>
       <c r="M516" s="2" t="n">
         <v>0</v>
       </c>
@@ -34462,7 +34462,7 @@
       <c r="P516" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q516" s="3" t="n"/>
+      <c r="Q516" s="3" t="inlineStr"/>
       <c r="R516" s="2" t="n">
         <v>0</v>
       </c>
@@ -34509,7 +34509,7 @@
       <c r="K517" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L517" s="3" t="n"/>
+      <c r="L517" s="3" t="inlineStr"/>
       <c r="M517" s="2" t="n">
         <v>0</v>
       </c>
@@ -34522,7 +34522,7 @@
       <c r="P517" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q517" s="3" t="n"/>
+      <c r="Q517" s="3" t="inlineStr"/>
       <c r="R517" s="2" t="n">
         <v>0</v>
       </c>
@@ -34569,7 +34569,7 @@
       <c r="K518" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L518" s="3" t="n"/>
+      <c r="L518" s="3" t="inlineStr"/>
       <c r="M518" s="2" t="n">
         <v>0</v>
       </c>
@@ -34582,7 +34582,7 @@
       <c r="P518" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q518" s="3" t="n"/>
+      <c r="Q518" s="3" t="inlineStr"/>
       <c r="R518" s="2" t="n">
         <v>0</v>
       </c>
@@ -34629,7 +34629,7 @@
       <c r="K519" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L519" s="3" t="n"/>
+      <c r="L519" s="3" t="inlineStr"/>
       <c r="M519" s="2" t="n">
         <v>0</v>
       </c>
@@ -34642,7 +34642,7 @@
       <c r="P519" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q519" s="3" t="n"/>
+      <c r="Q519" s="3" t="inlineStr"/>
       <c r="R519" s="2" t="n">
         <v>0</v>
       </c>
@@ -34689,7 +34689,7 @@
       <c r="K520" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L520" s="3" t="n"/>
+      <c r="L520" s="3" t="inlineStr"/>
       <c r="M520" s="2" t="n">
         <v>0</v>
       </c>
@@ -34702,7 +34702,7 @@
       <c r="P520" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q520" s="3" t="n"/>
+      <c r="Q520" s="3" t="inlineStr"/>
       <c r="R520" s="2" t="n">
         <v>0</v>
       </c>
@@ -34749,7 +34749,7 @@
       <c r="K521" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L521" s="3" t="n"/>
+      <c r="L521" s="3" t="inlineStr"/>
       <c r="M521" s="2" t="n">
         <v>0</v>
       </c>
@@ -34762,7 +34762,7 @@
       <c r="P521" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q521" s="3" t="n"/>
+      <c r="Q521" s="3" t="inlineStr"/>
       <c r="R521" s="2" t="n">
         <v>0</v>
       </c>
@@ -34809,7 +34809,7 @@
       <c r="K522" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L522" s="3" t="n"/>
+      <c r="L522" s="3" t="inlineStr"/>
       <c r="M522" s="2" t="n">
         <v>0</v>
       </c>
@@ -34822,7 +34822,7 @@
       <c r="P522" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q522" s="3" t="n"/>
+      <c r="Q522" s="3" t="inlineStr"/>
       <c r="R522" s="2" t="n">
         <v>0</v>
       </c>
@@ -34869,7 +34869,7 @@
       <c r="K523" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L523" s="3" t="n"/>
+      <c r="L523" s="3" t="inlineStr"/>
       <c r="M523" s="2" t="n">
         <v>0</v>
       </c>
@@ -34882,7 +34882,7 @@
       <c r="P523" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q523" s="3" t="n"/>
+      <c r="Q523" s="3" t="inlineStr"/>
       <c r="R523" s="2" t="n">
         <v>0</v>
       </c>
@@ -34929,7 +34929,7 @@
       <c r="K524" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L524" s="3" t="n"/>
+      <c r="L524" s="3" t="inlineStr"/>
       <c r="M524" s="2" t="n">
         <v>0</v>
       </c>
@@ -34942,7 +34942,7 @@
       <c r="P524" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q524" s="3" t="n"/>
+      <c r="Q524" s="3" t="inlineStr"/>
       <c r="R524" s="2" t="n">
         <v>0</v>
       </c>
@@ -34989,7 +34989,7 @@
       <c r="K525" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L525" s="3" t="n"/>
+      <c r="L525" s="3" t="inlineStr"/>
       <c r="M525" s="2" t="n">
         <v>0</v>
       </c>
@@ -35002,7 +35002,7 @@
       <c r="P525" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q525" s="3" t="n"/>
+      <c r="Q525" s="3" t="inlineStr"/>
       <c r="R525" s="2" t="n">
         <v>0</v>
       </c>
@@ -35049,7 +35049,7 @@
       <c r="K526" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L526" s="3" t="n"/>
+      <c r="L526" s="3" t="inlineStr"/>
       <c r="M526" s="2" t="n">
         <v>0</v>
       </c>
@@ -35062,7 +35062,7 @@
       <c r="P526" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q526" s="3" t="n"/>
+      <c r="Q526" s="3" t="inlineStr"/>
       <c r="R526" s="2" t="n">
         <v>0</v>
       </c>
@@ -35109,7 +35109,7 @@
       <c r="K527" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L527" s="3" t="n"/>
+      <c r="L527" s="3" t="inlineStr"/>
       <c r="M527" s="2" t="n">
         <v>0</v>
       </c>
@@ -35122,7 +35122,7 @@
       <c r="P527" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="Q527" s="3" t="n"/>
+      <c r="Q527" s="3" t="inlineStr"/>
       <c r="R527" s="2" t="n">
         <v>0</v>
       </c>
@@ -35171,7 +35171,7 @@
       <c r="K528" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L528" s="3" t="n"/>
+      <c r="L528" s="3" t="inlineStr"/>
       <c r="M528" s="2" t="n">
         <v>0</v>
       </c>
@@ -35235,7 +35235,7 @@
       <c r="K529" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L529" s="3" t="n"/>
+      <c r="L529" s="3" t="inlineStr"/>
       <c r="M529" s="2" t="n">
         <v>0</v>
       </c>
@@ -35299,7 +35299,7 @@
       <c r="K530" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L530" s="3" t="n"/>
+      <c r="L530" s="3" t="inlineStr"/>
       <c r="M530" s="2" t="n">
         <v>0</v>
       </c>
@@ -35363,7 +35363,7 @@
       <c r="K531" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L531" s="3" t="n"/>
+      <c r="L531" s="3" t="inlineStr"/>
       <c r="M531" s="2" t="n">
         <v>0</v>
       </c>
@@ -35427,7 +35427,7 @@
       <c r="K532" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L532" s="3" t="n"/>
+      <c r="L532" s="3" t="inlineStr"/>
       <c r="M532" s="2" t="n">
         <v>0</v>
       </c>
@@ -35491,7 +35491,7 @@
       <c r="K533" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L533" s="3" t="n"/>
+      <c r="L533" s="3" t="inlineStr"/>
       <c r="M533" s="2" t="n">
         <v>0</v>
       </c>
@@ -35555,7 +35555,7 @@
       <c r="K534" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L534" s="3" t="n"/>
+      <c r="L534" s="3" t="inlineStr"/>
       <c r="M534" s="2" t="n">
         <v>0</v>
       </c>
@@ -35619,7 +35619,7 @@
       <c r="K535" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L535" s="3" t="n"/>
+      <c r="L535" s="3" t="inlineStr"/>
       <c r="M535" s="2" t="n">
         <v>0</v>
       </c>
@@ -35683,7 +35683,7 @@
       <c r="K536" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L536" s="3" t="n"/>
+      <c r="L536" s="3" t="inlineStr"/>
       <c r="M536" s="2" t="n">
         <v>0</v>
       </c>
@@ -35747,7 +35747,7 @@
       <c r="K537" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L537" s="3" t="n"/>
+      <c r="L537" s="3" t="inlineStr"/>
       <c r="M537" s="2" t="n">
         <v>0</v>
       </c>
@@ -35811,7 +35811,7 @@
       <c r="K538" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L538" s="3" t="n"/>
+      <c r="L538" s="3" t="inlineStr"/>
       <c r="M538" s="2" t="n">
         <v>0</v>
       </c>
@@ -35875,7 +35875,7 @@
       <c r="K539" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L539" s="3" t="n"/>
+      <c r="L539" s="3" t="inlineStr"/>
       <c r="M539" s="2" t="n">
         <v>0</v>
       </c>
@@ -35939,7 +35939,7 @@
       <c r="K540" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L540" s="3" t="n"/>
+      <c r="L540" s="3" t="inlineStr"/>
       <c r="M540" s="2" t="n">
         <v>0</v>
       </c>
@@ -36003,7 +36003,7 @@
       <c r="K541" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L541" s="3" t="n"/>
+      <c r="L541" s="3" t="inlineStr"/>
       <c r="M541" s="2" t="n">
         <v>0</v>
       </c>
@@ -36067,7 +36067,7 @@
       <c r="K542" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L542" s="3" t="n"/>
+      <c r="L542" s="3" t="inlineStr"/>
       <c r="M542" s="2" t="n">
         <v>0</v>
       </c>
@@ -36131,7 +36131,7 @@
       <c r="K543" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L543" s="3" t="n"/>
+      <c r="L543" s="3" t="inlineStr"/>
       <c r="M543" s="2" t="n">
         <v>0</v>
       </c>
@@ -36195,7 +36195,7 @@
       <c r="K544" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L544" s="3" t="n"/>
+      <c r="L544" s="3" t="inlineStr"/>
       <c r="M544" s="2" t="n">
         <v>0</v>
       </c>
@@ -36259,7 +36259,7 @@
       <c r="K545" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L545" s="3" t="n"/>
+      <c r="L545" s="3" t="inlineStr"/>
       <c r="M545" s="2" t="n">
         <v>0</v>
       </c>
@@ -36323,7 +36323,7 @@
       <c r="K546" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L546" s="3" t="n"/>
+      <c r="L546" s="3" t="inlineStr"/>
       <c r="M546" s="2" t="n">
         <v>0</v>
       </c>
@@ -36387,7 +36387,7 @@
       <c r="K547" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L547" s="3" t="n"/>
+      <c r="L547" s="3" t="inlineStr"/>
       <c r="M547" s="2" t="n">
         <v>0</v>
       </c>
@@ -36451,7 +36451,7 @@
       <c r="K548" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L548" s="3" t="n"/>
+      <c r="L548" s="3" t="inlineStr"/>
       <c r="M548" s="2" t="n">
         <v>0</v>
       </c>
@@ -36515,7 +36515,7 @@
       <c r="K549" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L549" s="3" t="n"/>
+      <c r="L549" s="3" t="inlineStr"/>
       <c r="M549" s="2" t="n">
         <v>0</v>
       </c>
@@ -36579,7 +36579,7 @@
       <c r="K550" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L550" s="3" t="n"/>
+      <c r="L550" s="3" t="inlineStr"/>
       <c r="M550" s="2" t="n">
         <v>0</v>
       </c>
@@ -36643,7 +36643,7 @@
       <c r="K551" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L551" s="3" t="n"/>
+      <c r="L551" s="3" t="inlineStr"/>
       <c r="M551" s="2" t="n">
         <v>0</v>
       </c>
@@ -36707,7 +36707,7 @@
       <c r="K552" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L552" s="3" t="n"/>
+      <c r="L552" s="3" t="inlineStr"/>
       <c r="M552" s="2" t="n">
         <v>0</v>
       </c>
@@ -36771,7 +36771,7 @@
       <c r="K553" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L553" s="3" t="n"/>
+      <c r="L553" s="3" t="inlineStr"/>
       <c r="M553" s="2" t="n">
         <v>0</v>
       </c>
@@ -36835,7 +36835,7 @@
       <c r="K554" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L554" s="3" t="n"/>
+      <c r="L554" s="3" t="inlineStr"/>
       <c r="M554" s="2" t="n">
         <v>0</v>
       </c>
@@ -36899,7 +36899,7 @@
       <c r="K555" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L555" s="3" t="n"/>
+      <c r="L555" s="3" t="inlineStr"/>
       <c r="M555" s="2" t="n">
         <v>0</v>
       </c>
@@ -36963,7 +36963,7 @@
       <c r="K556" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L556" s="3" t="n"/>
+      <c r="L556" s="3" t="inlineStr"/>
       <c r="M556" s="2" t="n">
         <v>0</v>
       </c>
@@ -37027,7 +37027,7 @@
       <c r="K557" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L557" s="3" t="n"/>
+      <c r="L557" s="3" t="inlineStr"/>
       <c r="M557" s="2" t="n">
         <v>0</v>
       </c>
@@ -37091,7 +37091,7 @@
       <c r="K558" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L558" s="3" t="n"/>
+      <c r="L558" s="3" t="inlineStr"/>
       <c r="M558" s="2" t="n">
         <v>0</v>
       </c>
@@ -37155,7 +37155,7 @@
       <c r="K559" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L559" s="3" t="n"/>
+      <c r="L559" s="3" t="inlineStr"/>
       <c r="M559" s="2" t="n">
         <v>0</v>
       </c>
@@ -37219,7 +37219,7 @@
       <c r="K560" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L560" s="3" t="n"/>
+      <c r="L560" s="3" t="inlineStr"/>
       <c r="M560" s="2" t="n">
         <v>0</v>
       </c>
@@ -37283,7 +37283,7 @@
       <c r="K561" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L561" s="3" t="n"/>
+      <c r="L561" s="3" t="inlineStr"/>
       <c r="M561" s="2" t="n">
         <v>0</v>
       </c>
@@ -37347,7 +37347,7 @@
       <c r="K562" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L562" s="3" t="n"/>
+      <c r="L562" s="3" t="inlineStr"/>
       <c r="M562" s="2" t="n">
         <v>0</v>
       </c>
@@ -37411,7 +37411,7 @@
       <c r="K563" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L563" s="3" t="n"/>
+      <c r="L563" s="3" t="inlineStr"/>
       <c r="M563" s="2" t="n">
         <v>0</v>
       </c>
@@ -37475,7 +37475,7 @@
       <c r="K564" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L564" s="3" t="n"/>
+      <c r="L564" s="3" t="inlineStr"/>
       <c r="M564" s="2" t="n">
         <v>0</v>
       </c>
@@ -37539,7 +37539,7 @@
       <c r="K565" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L565" s="3" t="n"/>
+      <c r="L565" s="3" t="inlineStr"/>
       <c r="M565" s="2" t="n">
         <v>0</v>
       </c>
@@ -37603,7 +37603,7 @@
       <c r="K566" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L566" s="3" t="n"/>
+      <c r="L566" s="3" t="inlineStr"/>
       <c r="M566" s="2" t="n">
         <v>0</v>
       </c>
@@ -37667,7 +37667,7 @@
       <c r="K567" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L567" s="3" t="n"/>
+      <c r="L567" s="3" t="inlineStr"/>
       <c r="M567" s="2" t="n">
         <v>0</v>
       </c>
@@ -37731,7 +37731,7 @@
       <c r="K568" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L568" s="3" t="n"/>
+      <c r="L568" s="3" t="inlineStr"/>
       <c r="M568" s="2" t="n">
         <v>0</v>
       </c>
@@ -37795,7 +37795,7 @@
       <c r="K569" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L569" s="3" t="n"/>
+      <c r="L569" s="3" t="inlineStr"/>
       <c r="M569" s="2" t="n">
         <v>0</v>
       </c>
@@ -37859,7 +37859,7 @@
       <c r="K570" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L570" s="3" t="n"/>
+      <c r="L570" s="3" t="inlineStr"/>
       <c r="M570" s="2" t="n">
         <v>0</v>
       </c>
@@ -37923,7 +37923,7 @@
       <c r="K571" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L571" s="3" t="n"/>
+      <c r="L571" s="3" t="inlineStr"/>
       <c r="M571" s="2" t="n">
         <v>0</v>
       </c>
@@ -37987,7 +37987,7 @@
       <c r="K572" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L572" s="3" t="n"/>
+      <c r="L572" s="3" t="inlineStr"/>
       <c r="M572" s="2" t="n">
         <v>0</v>
       </c>
@@ -38051,7 +38051,7 @@
       <c r="K573" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L573" s="3" t="n"/>
+      <c r="L573" s="3" t="inlineStr"/>
       <c r="M573" s="2" t="n">
         <v>0</v>
       </c>
@@ -38115,7 +38115,7 @@
       <c r="K574" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L574" s="3" t="n"/>
+      <c r="L574" s="3" t="inlineStr"/>
       <c r="M574" s="2" t="n">
         <v>0</v>
       </c>
@@ -38179,7 +38179,7 @@
       <c r="K575" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L575" s="3" t="n"/>
+      <c r="L575" s="3" t="inlineStr"/>
       <c r="M575" s="2" t="n">
         <v>0</v>
       </c>
@@ -38243,7 +38243,7 @@
       <c r="K576" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L576" s="3" t="n"/>
+      <c r="L576" s="3" t="inlineStr"/>
       <c r="M576" s="2" t="n">
         <v>0</v>
       </c>
@@ -38307,7 +38307,7 @@
       <c r="K577" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L577" s="3" t="n"/>
+      <c r="L577" s="3" t="inlineStr"/>
       <c r="M577" s="2" t="n">
         <v>0</v>
       </c>
@@ -38371,7 +38371,7 @@
       <c r="K578" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L578" s="3" t="n"/>
+      <c r="L578" s="3" t="inlineStr"/>
       <c r="M578" s="2" t="n">
         <v>0</v>
       </c>
@@ -38435,7 +38435,7 @@
       <c r="K579" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L579" s="3" t="n"/>
+      <c r="L579" s="3" t="inlineStr"/>
       <c r="M579" s="2" t="n">
         <v>0</v>
       </c>
@@ -38499,7 +38499,7 @@
       <c r="K580" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L580" s="3" t="n"/>
+      <c r="L580" s="3" t="inlineStr"/>
       <c r="M580" s="2" t="n">
         <v>0</v>
       </c>
@@ -41827,7 +41827,7 @@
       <c r="K629" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L629" s="3" t="n"/>
+      <c r="L629" s="3" t="inlineStr"/>
       <c r="M629" s="2" t="n">
         <v>0</v>
       </c>
@@ -41891,7 +41891,7 @@
       <c r="K630" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L630" s="3" t="n"/>
+      <c r="L630" s="3" t="inlineStr"/>
       <c r="M630" s="2" t="n">
         <v>0</v>
       </c>
@@ -41955,7 +41955,7 @@
       <c r="K631" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L631" s="3" t="n"/>
+      <c r="L631" s="3" t="inlineStr"/>
       <c r="M631" s="2" t="n">
         <v>0</v>
       </c>
@@ -42019,7 +42019,7 @@
       <c r="K632" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L632" s="3" t="n"/>
+      <c r="L632" s="3" t="inlineStr"/>
       <c r="M632" s="2" t="n">
         <v>0</v>
       </c>
@@ -42083,7 +42083,7 @@
       <c r="K633" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L633" s="3" t="n"/>
+      <c r="L633" s="3" t="inlineStr"/>
       <c r="M633" s="2" t="n">
         <v>0</v>
       </c>
@@ -42147,7 +42147,7 @@
       <c r="K634" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L634" s="3" t="n"/>
+      <c r="L634" s="3" t="inlineStr"/>
       <c r="M634" s="2" t="n">
         <v>0</v>
       </c>
@@ -42211,7 +42211,7 @@
       <c r="K635" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L635" s="3" t="n"/>
+      <c r="L635" s="3" t="inlineStr"/>
       <c r="M635" s="2" t="n">
         <v>0</v>
       </c>
@@ -42275,7 +42275,7 @@
       <c r="K636" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L636" s="3" t="n"/>
+      <c r="L636" s="3" t="inlineStr"/>
       <c r="M636" s="2" t="n">
         <v>0</v>
       </c>
@@ -42339,7 +42339,7 @@
       <c r="K637" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L637" s="3" t="n"/>
+      <c r="L637" s="3" t="inlineStr"/>
       <c r="M637" s="2" t="n">
         <v>0</v>
       </c>
@@ -42403,7 +42403,7 @@
       <c r="K638" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L638" s="3" t="n"/>
+      <c r="L638" s="3" t="inlineStr"/>
       <c r="M638" s="2" t="n">
         <v>0</v>
       </c>
@@ -42467,7 +42467,7 @@
       <c r="K639" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L639" s="3" t="n"/>
+      <c r="L639" s="3" t="inlineStr"/>
       <c r="M639" s="2" t="n">
         <v>0</v>
       </c>
@@ -42531,7 +42531,7 @@
       <c r="K640" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L640" s="3" t="n"/>
+      <c r="L640" s="3" t="inlineStr"/>
       <c r="M640" s="2" t="n">
         <v>0</v>
       </c>
@@ -42595,7 +42595,7 @@
       <c r="K641" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L641" s="3" t="n"/>
+      <c r="L641" s="3" t="inlineStr"/>
       <c r="M641" s="2" t="n">
         <v>0</v>
       </c>
@@ -42659,7 +42659,7 @@
       <c r="K642" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L642" s="3" t="n"/>
+      <c r="L642" s="3" t="inlineStr"/>
       <c r="M642" s="2" t="n">
         <v>0</v>
       </c>
@@ -42723,7 +42723,7 @@
       <c r="K643" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L643" s="3" t="n"/>
+      <c r="L643" s="3" t="inlineStr"/>
       <c r="M643" s="2" t="n">
         <v>0</v>
       </c>
@@ -42787,7 +42787,7 @@
       <c r="K644" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="L644" s="3" t="n"/>
+      <c r="L644" s="3" t="inlineStr"/>
       <c r="M644" s="2" t="n">
         <v>0</v>
       </c>
